--- a/biology/Histoire de la zoologie et de la botanique/Henri_Jaccard/Henri_Jaccard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Jaccard/Henri_Jaccard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Jaccard, né le 5 novembre 1844 à Échichens et mort le 13 juin 1922 à Lausanne, est un botaniste et scientifique vaudois.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Jaccard enseigne dans divers établissements primaires et secondaires du canton de Vaud ainsi qu'en Égypte en 1864-1865 avant de devenir botaniste, auteur de très nombreuses études sur la flore, Henri Jaccard est nommé docteur honoris causa de l'université de Lausanne, à l'occasion du centenaire de la Société vaudoise des sciences naturelles.
 Il s'adonne à la botanique et, occasionnellement à l'entomologie. Dès 1878, Henri Jaccard arpente le canton du Valais pour y récolter des plantes ; il communique ses observations dans de nombreux articles et dans son Catalogue de la flore valaisane (1895). Ses herbiers sont conservés au Jardin botanique de Lausanne et à l'Institut de géobotanique de l'École polytechnique fédérale de Lausanne. En 1906, il publie un Essai de toponymie romande.
-Franc-maçon, il est membre fondateur et premier orateur de la loge Progrès et Vérité de Bex, fondée par le Directoire Suprême Helvétique Romand le 27 juin 1875 et passée à la Grande Loge suisse Alpina le 1er janvier 1877[1].
+Franc-maçon, il est membre fondateur et premier orateur de la loge Progrès et Vérité de Bex, fondée par le Directoire Suprême Helvétique Romand le 27 juin 1875 et passée à la Grande Loge suisse Alpina le 1er janvier 1877.
 </t>
         </is>
       </c>
